--- a/020_data/2019_NJ_boxes.xlsx
+++ b/020_data/2019_NJ_boxes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/Hanks-Research/2020_Kestrel_Plots/020_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F231B74-D440-0344-8EEF-622C2090DC12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244EA0DE-9919-0543-AB9D-E3ECCACC19A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4280" yWindow="-16420" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -710,7 +710,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -822,6 +822,9 @@
       <c r="C4" s="3">
         <v>43591</v>
       </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
@@ -926,6 +929,9 @@
         <v>43589</v>
       </c>
       <c r="D10" s="26"/>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
@@ -1030,6 +1036,9 @@
         <v>43589</v>
       </c>
       <c r="D16" s="29"/>
+      <c r="E16" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
@@ -1038,6 +1047,9 @@
       <c r="C17" s="3">
         <v>43589</v>
       </c>
+      <c r="E17" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
@@ -1099,6 +1111,9 @@
       <c r="C21" s="3">
         <v>43591</v>
       </c>
+      <c r="E21" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
@@ -1108,6 +1123,9 @@
         <v>43589</v>
       </c>
       <c r="D22" s="15"/>
+      <c r="E22" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="16" t="s">
@@ -1212,6 +1230,9 @@
         <v>43602</v>
       </c>
       <c r="D28" s="15"/>
+      <c r="E28" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="2:13" ht="48" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
@@ -1222,6 +1243,9 @@
       </c>
       <c r="D29" s="17" t="s">
         <v>25</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
@@ -1274,6 +1298,9 @@
       <c r="D32" s="24" t="s">
         <v>28</v>
       </c>
+      <c r="E32" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="2:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
@@ -1340,6 +1367,9 @@
       </c>
       <c r="C36" s="3">
         <v>43589</v>
+      </c>
+      <c r="E36" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.2">
@@ -1522,6 +1552,9 @@
       <c r="C47" s="3">
         <v>43589</v>
       </c>
+      <c r="E47" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="2:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
@@ -1532,6 +1565,9 @@
       </c>
       <c r="D48" s="24" t="s">
         <v>27</v>
+      </c>
+      <c r="E48" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.2">
